--- a/07-julio/6-portal-cliente/orainde/ORAINDE.xlsx
+++ b/07-julio/6-portal-cliente/orainde/ORAINDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\6_ORAINDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\orainde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73ADC7D-2EB8-4D9C-9EEF-4D9590D15B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08262EE3-EA46-4179-97D6-E16D3C684F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27780" yWindow="480" windowWidth="23145" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="1170" windowWidth="23190" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>GALAÑ ALDANA</t>
   </si>
   <si>
-    <t>JUNIO Y SAC 2025</t>
+    <t>JULIO 2025</t>
   </si>
 </sst>
 </file>
@@ -155,14 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,367 +549,332 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
-        <v>551589.97</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="8">
+        <v>580391.86</v>
+      </c>
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="9">
-        <v>48129.81</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="8">
+        <v>21883.32</v>
+      </c>
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>+B5+C5</f>
-        <v>551589.97</v>
-      </c>
-      <c r="G5" s="9">
+        <v>580391.86</v>
+      </c>
+      <c r="G5" s="8">
         <f>+D5+E5</f>
-        <v>48129.81</v>
-      </c>
-      <c r="H5" s="9">
+        <v>21883.32</v>
+      </c>
+      <c r="H5" s="8">
         <f>+B5+C5+D5+E5</f>
-        <v>599719.78</v>
-      </c>
-      <c r="I5" s="9">
+        <v>602275.17999999993</v>
+      </c>
+      <c r="I5" s="8">
         <f>+H5*2</f>
-        <v>1199439.56</v>
+        <v>1204550.3599999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
-        <v>546128.77</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="8">
+        <v>574645.41</v>
+      </c>
+      <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
-        <v>47653.71</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="8">
+        <v>21666</v>
+      </c>
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>+B6+C6</f>
-        <v>546128.77</v>
-      </c>
-      <c r="G6" s="9">
+        <v>574645.41</v>
+      </c>
+      <c r="G6" s="8">
         <f>+D6+E6</f>
-        <v>47653.71</v>
-      </c>
-      <c r="H6" s="9">
+        <v>21666</v>
+      </c>
+      <c r="H6" s="8">
         <f>+B6+C6+D6+E6</f>
-        <v>593782.48</v>
-      </c>
-      <c r="I6" s="9">
+        <v>596311.41</v>
+      </c>
+      <c r="I6" s="8">
         <f>+H6*2</f>
-        <v>1187564.96</v>
+        <v>1192622.82</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
         <f>SUM(B5:B6)</f>
-        <v>1097718.74</v>
-      </c>
-      <c r="C7" s="11">
+        <v>1155037.27</v>
+      </c>
+      <c r="C7" s="10">
         <f>SUM(C5:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>SUM(D5:D6)</f>
-        <v>95783.51999999999</v>
-      </c>
-      <c r="E7" s="11">
+        <v>43549.32</v>
+      </c>
+      <c r="E7" s="10">
         <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>SUM(F5:F6)</f>
-        <v>1097718.74</v>
-      </c>
-      <c r="G7" s="9">
+        <v>1155037.27</v>
+      </c>
+      <c r="G7" s="8">
         <f>+D7+E7</f>
-        <v>95783.51999999999</v>
-      </c>
-      <c r="H7" s="11">
+        <v>43549.32</v>
+      </c>
+      <c r="H7" s="10">
         <f>SUM(H5:H6)</f>
-        <v>1193502.26</v>
-      </c>
-      <c r="I7" s="11">
+        <v>1198586.5899999999</v>
+      </c>
+      <c r="I7" s="10">
         <f>SUM(I5:I6)</f>
-        <v>2387004.52</v>
+        <v>2397173.1799999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B10" s="4"/>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>551589.97</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>275794.99</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>48129.81</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>24065.41</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f>+B12+C12</f>
         <v>827384.96</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f>+D12+E12</f>
         <v>72195.22</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f>+B12+C12+D12+E12</f>
         <v>899580.18</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f>+H12*2</f>
         <v>1799160.36</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>1775094.92</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>53974.48</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>53252.85</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <f>+K12-L12</f>
         <v>721.63000000000466</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>546128.77</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>273064.39</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>47653.71</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>23826.86</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f>+B13+C13</f>
         <v>819193.16</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f>+D13+E13</f>
         <v>71480.570000000007</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f>+B13+C13+D13+E13</f>
         <v>890673.73</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f>+H13*2</f>
         <v>1781347.46</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>1757520.14</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>53440.42</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>52725.599999999999</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <f>+K13-L13</f>
         <v>714.81999999999971</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <f>SUM(B12:B13)</f>
         <v>1097718.74</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f>SUM(C12:C13)</f>
         <v>548859.38</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f>SUM(D12:D13)</f>
         <v>95783.51999999999</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f>SUM(E12:E13)</f>
         <v>47892.270000000004</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f>SUM(F12:F13)</f>
         <v>1646578.12</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <f>+D14+E14</f>
         <v>143675.78999999998</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f>SUM(H12:H13)</f>
         <v>1790253.9100000001</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f>SUM(I12:I13)</f>
         <v>3580507.8200000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
   </sheetData>
